--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MASSACHUSETTS_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MASSACHUSETTS_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D359"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C14">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C19">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C31">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C41">
@@ -1145,7 +1145,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1415,12 +1415,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C78">
@@ -1446,7 +1446,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C80">
@@ -1511,7 +1511,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C85">
@@ -1576,7 +1576,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1602,7 +1602,7 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C92">
@@ -1667,7 +1667,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C97">
@@ -1706,7 +1706,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C100">
@@ -1763,7 +1763,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C104">
@@ -1802,7 +1802,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C107">
@@ -1880,7 +1880,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C113">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C114">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C117">
@@ -1976,7 +1976,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C120">
@@ -2002,7 +2002,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C122">
@@ -2028,7 +2028,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C124">
@@ -2041,7 +2041,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C125">
@@ -2132,7 +2132,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C132">
@@ -2158,7 +2158,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C134">
@@ -2358,7 +2358,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C149">
@@ -2371,7 +2371,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C150">
@@ -2384,7 +2384,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C151">
@@ -2441,7 +2441,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C155">
@@ -2467,7 +2467,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C157">
@@ -2532,7 +2532,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C162">
@@ -2610,7 +2610,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C168">
@@ -2623,7 +2623,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C169">
@@ -2662,7 +2662,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C172">
@@ -2675,7 +2675,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C173">
@@ -2701,7 +2701,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C175">
@@ -3010,7 +3010,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C198">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C206">
@@ -3168,7 +3168,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C209">
@@ -3181,7 +3181,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3194,7 +3194,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C211">
@@ -3220,7 +3220,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C213">
@@ -3233,7 +3233,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C214">
@@ -3246,7 +3246,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C215">
@@ -3311,7 +3311,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C220">
@@ -3454,7 +3454,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C231">
@@ -3628,7 +3628,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C244">
@@ -3719,7 +3719,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C251">
@@ -3745,7 +3745,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C253">
@@ -3875,7 +3875,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C263">
@@ -3958,7 +3958,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C269">
@@ -3971,7 +3971,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C270">
@@ -3997,7 +3997,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C272">
@@ -4145,7 +4145,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C283">
@@ -4534,7 +4534,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C311">
@@ -4617,7 +4617,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C317">
@@ -4721,7 +4721,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C325">
@@ -4760,7 +4760,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C328">
@@ -4812,7 +4812,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C332">
@@ -4838,7 +4838,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C334">
@@ -5098,41 +5098,6 @@
       </c>
       <c r="D353">
         <v>1</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MASSACHUSETTS_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MASSACHUSETTS_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Huixtán</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Mitontic</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Pueblo Nuevo Solistahuacán</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Sabanilla</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -959,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -972,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -985,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -998,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -1011,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1130,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1161,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1174,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1187,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1200,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1213,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1226,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1239,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1252,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1265,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1278,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1291,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1348,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -1361,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -1374,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -1387,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tamazula</t>
@@ -1400,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1444,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -1457,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1470,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1483,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Chiconcuac</t>
@@ -1496,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1509,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1522,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -1535,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1548,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Jilotzingo</t>
@@ -1561,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1574,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1587,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1600,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1613,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -1626,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1639,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -1652,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -1665,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1678,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1691,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -1704,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1761,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -1774,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1787,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -1800,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1813,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -1826,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -1839,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1852,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>León</t>
@@ -1865,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1878,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -1891,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1904,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -1917,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1948,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -1961,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1974,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1987,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2000,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2013,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -2026,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2039,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -2052,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -2065,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2078,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2091,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2104,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -2117,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -2130,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -2143,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2156,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -2169,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -2182,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -2195,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -2208,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2239,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -2252,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2265,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -2278,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2291,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -2304,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -2317,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Pacula</t>
@@ -2330,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -2343,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -2356,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -2369,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -2382,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -2395,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -2408,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2439,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Ahualulco De Mercado</t>
@@ -2452,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -2465,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -2478,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -2491,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -2504,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Chiquilistlán</t>
@@ -2517,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -2530,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -2543,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -2556,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -2569,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -2582,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Jocotepec</t>
@@ -2595,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -2608,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2621,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2634,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2647,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -2660,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -2673,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2686,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -2699,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -2712,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2743,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -2756,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Chilchota</t>
@@ -2769,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Chinicuila</t>
@@ -2782,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -2795,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -2808,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -2821,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -2834,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -2847,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Pajacuarán</t>
@@ -2860,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2873,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -2886,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -2899,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -2912,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2925,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2938,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2969,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -2982,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2995,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -3008,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -3021,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -3034,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3065,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -3078,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3109,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3140,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Ayotzintepec</t>
@@ -3153,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Calihualá</t>
@@ -3166,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -3179,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -3192,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -3205,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -3218,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -3231,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Pinotepa De Don Luis</t>
@@ -3244,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -3257,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -3270,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -3283,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>San Andrés Yaá</t>
@@ -3296,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -3309,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -3322,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -3335,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>San Juan Chicomezúchil</t>
@@ -3348,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>San Juan Colorado</t>
@@ -3361,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -3374,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -3387,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -3400,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -3413,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -3426,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -3439,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Santo Domingo Nuxaá</t>
@@ -3452,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -3465,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3496,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -3509,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -3522,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -3535,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Chinantla</t>
@@ -3548,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Coatzingo</t>
@@ -3561,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -3574,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -3587,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -3600,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -3613,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Ixcaquixtla</t>
@@ -3626,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -3639,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -3652,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -3665,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -3678,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -3691,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -3704,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -3717,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -3730,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -3743,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -3756,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -3769,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -3782,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -3795,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -3808,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -3821,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -3834,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -3847,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -3860,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -3873,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -3886,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -3899,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -3912,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3943,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -3956,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -3969,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -3982,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -3995,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -4008,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4039,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -4052,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -4065,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -4078,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -4091,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -4104,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -4117,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -4130,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -4143,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -4156,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4187,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -4200,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -4213,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -4226,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -4239,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4270,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -4283,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -4296,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -4309,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -4322,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4353,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -4366,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -4379,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -4392,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -4405,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4436,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -4449,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -4462,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>San Carlos</t>
@@ -4475,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -4488,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -4501,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4532,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tepetitla De Lardizábal</t>
@@ -4545,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -4558,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4571,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -4584,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4615,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -4628,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Cerro Azul</t>
@@ -4641,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -4654,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -4667,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Coxquihui</t>
@@ -4680,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -4693,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -4706,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -4719,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -4732,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Ixcatepec</t>
@@ -4745,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -4758,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -4771,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -4784,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -4797,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Moloacán</t>
@@ -4810,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Ozuluama De Mascareñas</t>
@@ -4823,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -4836,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Sayula De Alemán</t>
@@ -4849,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -4862,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -4875,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -4888,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -4901,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -4914,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -4927,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -4940,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -4953,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Xico</t>
@@ -4966,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -4979,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5010,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -5023,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -5036,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -5049,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -5062,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -5075,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Total</t>
